--- a/biology/Zoologie/Callosciurus_notatus/Callosciurus_notatus.xlsx
+++ b/biology/Zoologie/Callosciurus_notatus/Callosciurus_notatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callosciurus notatus, l'Écureuil plantain, l’Écureuil palmiste[1], l'Écureuil du tamarin[2] ou l'Écureuil du bananier[3], est une espèce de rongeurs de la famille des sciuridés. Cet écureuil est présent en Asie du Sud-Est.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callosciurus notatus, l'Écureuil plantain, l’Écureuil palmiste, l'Écureuil du tamarin ou l'Écureuil du bananier, est une espèce de rongeurs de la famille des sciuridés. Cet écureuil est présent en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callosciurus notatus est un membre de taille moyenne[4] de la famille des Sciuridae qui mesure de 17 à 22 cm pour le corps avec une queue mesurant de 16 à 21 cm. Les pattes arrière mesurent de 4 à 5 cm. Son poids varie de 150 à 315 g[5],[6].
-Le dessus de l'animal est marron et le dessous est rouge-orangé variant d'une couleur très pâle à très foncée parfois gris délavé. Callosciurus notatus présente des bandes distinctives sur les flancs avec une bande noire près du ventre et une bande chamois au dessus. Le bout de la queue est usuellement orange mais peut se restreindre à quelques poils chez certains individus[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callosciurus notatus est un membre de taille moyenne de la famille des Sciuridae qui mesure de 17 à 22 cm pour le corps avec une queue mesurant de 16 à 21 cm. Les pattes arrière mesurent de 4 à 5 cm. Son poids varie de 150 à 315 g,.
+Le dessus de l'animal est marron et le dessous est rouge-orangé variant d'une couleur très pâle à très foncée parfois gris délavé. Callosciurus notatus présente des bandes distinctives sur les flancs avec une bande noire près du ventre et une bande chamois au dessus. Le bout de la queue est usuellement orange mais peut se restreindre à quelques poils chez certains individus.
 </t>
         </is>
       </c>
@@ -545,14 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Callosciurus notatus est présent en Asie du Sud-Est notamment en Thaïlande, en Malaisie péninsulaire et à Singapour mais également en Indonésie sur les îles de Sumatra, Java et Bornéo ainsi que sur les îles environnantes[5]. Il est considéré comme introduit à Sulawesi[6].
-Habitat
-Callosciurus notatus a été initialement décrit comme vivant dans les bananiers et les tamariniers[2],[7].
-Callosciurus notatus se rencontre dans les jardins, les cultures et les forêts secondaires[5]. Il peut s'acclimater aux plantations mono-culturales[5], comme les plantations de palmier à huile et de cacao où il est considéré comme un nuisible[8].
-Bien que peu présent dans l'intérieur des forêts primaires aux arbres de grande taille, il est commun dans les forêts côtières et les forêts marécageuses[5].
-Il a été observé jusqu'à des altitudes de 1 100 m dans le Selangor[9] et de 1 600 m sur le Mont Kinabalu à Bornéo[10].
-Callosciurus notatus peut s'adapter aux zones urbaines et est par exemple présent dans les parcs urbains de Singapour[11].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callosciurus notatus est présent en Asie du Sud-Est notamment en Thaïlande, en Malaisie péninsulaire et à Singapour mais également en Indonésie sur les îles de Sumatra, Java et Bornéo ainsi que sur les îles environnantes. Il est considéré comme introduit à Sulawesi.
 </t>
         </is>
       </c>
@@ -578,25 +591,176 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callosciurus notatus a été initialement décrit comme vivant dans les bananiers et les tamariniers,.
+Callosciurus notatus se rencontre dans les jardins, les cultures et les forêts secondaires. Il peut s'acclimater aux plantations mono-culturales, comme les plantations de palmier à huile et de cacao où il est considéré comme un nuisible.
+Bien que peu présent dans l'intérieur des forêts primaires aux arbres de grande taille, il est commun dans les forêts côtières et les forêts marécageuses.
+Il a été observé jusqu'à des altitudes de 1 100 m dans le Selangor et de 1 600 m sur le Mont Kinabalu à Bornéo.
+Callosciurus notatus peut s'adapter aux zones urbaines et est par exemple présent dans les parcs urbains de Singapour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Callosciurus_notatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callosciurus_notatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comportement
-Callosciurus notatus est une espèce diurne principalement active en début de matinée, en milieu de journée[8], et en fin d'après-midi qui se déplace et se nourrit dans les arbres de petite taille[5].
-Son grognement est fort et aigu, semblable à un cri d'oiseau, et répété continûment pendant de longues périodes[5].
-Cette espèce produit différents cris d'alarme spécifiques pour différents types de prédateurs comme les carnivores terrestres, les rapaces et les serpents. Chaque signal conduit les individus conspécifiques à adopter une stratégie d'évasion différente et adaptée à chaque type de prédateur[12].
-Alimentation
-Son alimentation inclut une large variété de fruits parmi lesquels les fruits du palmier à huile et du cacaoyer[8] et d'insectes avec en grande partie des fourmis[5]. Parmi celles-ci, il consomme des fourmis du genre Crematogaster qui vivent en symbiose avec des plantes du genre Macaranga[13]. Callosciurus notatus semble également se nourrir de larves de Tirathaba rufivena[14].
-Reproduction
-Callosciurus notatus construit un nid sphérique dans les branches au sommet de grands buissons ou de petits arbres à l'aide de brindilles et de feuilles[15].
-Les petits naissent nus avec les yeux fermés[15].
-Sa longévité peut atteindre quatre ans et demi en captivité[15].
-Parasites et maladies
-Callosciurus notatus peut être parasité par des nématodes comme Strongyloides callosciurus[16] ou des trématodes comme Allassogonoporus callosciuri[17].
-Comme la plupart des rongeurs, Callosciurus notatus est porteur d'ectoparasites[18] comme Neohaematopinus callosciuri[6].
-Callosciurus notatus peut être atteint de leptospirose[19].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callosciurus notatus est une espèce diurne principalement active en début de matinée, en milieu de journée, et en fin d'après-midi qui se déplace et se nourrit dans les arbres de petite taille.
+Son grognement est fort et aigu, semblable à un cri d'oiseau, et répété continûment pendant de longues périodes.
+Cette espèce produit différents cris d'alarme spécifiques pour différents types de prédateurs comme les carnivores terrestres, les rapaces et les serpents. Chaque signal conduit les individus conspécifiques à adopter une stratégie d'évasion différente et adaptée à chaque type de prédateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callosciurus_notatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callosciurus_notatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son alimentation inclut une large variété de fruits parmi lesquels les fruits du palmier à huile et du cacaoyer et d'insectes avec en grande partie des fourmis. Parmi celles-ci, il consomme des fourmis du genre Crematogaster qui vivent en symbiose avec des plantes du genre Macaranga. Callosciurus notatus semble également se nourrir de larves de Tirathaba rufivena.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callosciurus_notatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callosciurus_notatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callosciurus notatus construit un nid sphérique dans les branches au sommet de grands buissons ou de petits arbres à l'aide de brindilles et de feuilles.
+Les petits naissent nus avec les yeux fermés.
+Sa longévité peut atteindre quatre ans et demi en captivité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callosciurus_notatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callosciurus_notatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parasites et maladies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callosciurus notatus peut être parasité par des nématodes comme Strongyloides callosciurus ou des trématodes comme Allassogonoporus callosciuri.
+Comme la plupart des rongeurs, Callosciurus notatus est porteur d'ectoparasites comme Neohaematopinus callosciuri.
+Callosciurus notatus peut être atteint de leptospirose.
 </t>
         </is>
       </c>
